--- a/C# Designs Patterns/Metsker/Patrones de Diseño (Referencia Rápida).xlsx
+++ b/C# Designs Patterns/Metsker/Patrones de Diseño (Referencia Rápida).xlsx
@@ -10,7 +10,7 @@
     <sheet name="Tabla Completa" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla Dinámica" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
   <si>
     <t>Tabla de Referencia Rápida de Patrones de Diseño</t>
   </si>
@@ -267,6 +267,34 @@
   </si>
   <si>
     <t>Responsabilidad</t>
+  </si>
+  <si>
+    <t>Interfaz consistente para diferentes implementaciones.
+A ﬁreworks simulation designer establishes an interface that deﬁnes the behaviors your object must possess to participate in the simulation.</t>
+  </si>
+  <si>
+    <t>Interpretación de gramáticas.
+A toolkit lets you compose executable objects at runtime.</t>
+  </si>
+  <si>
+    <t>Plantillas de algoritmos.
+A superclass has a method that requires subclasses to ﬁll in a missing step.</t>
+  </si>
+  <si>
+    <t>Encapsulamiento de comandos.
+An object lets you extend its behavior by accepting a method encapsulated in an object and invoking that method at an appropriate moment.</t>
+  </si>
+  <si>
+    <t>Sustituto o marcador de posición para otro objeto.
+A code generator inserts behavior that provides the illusion that an object executing on another machine is local.</t>
+  </si>
+  <si>
+    <t>Comportamiento de múltiples objetos.
+A design lets you register for callbacks that will be issued when an object changes.</t>
+  </si>
+  <si>
+    <t>Separación de abstracción e implementación,
+A design lets you deﬁne abstract operations that depend on a well-deﬁned interface and lets you add new drivers that fulﬁll the interface.</t>
   </si>
 </sst>
 </file>
@@ -422,6 +450,9 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -459,9 +490,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1011,64 +1039,64 @@
     <i/>
   </colItems>
   <formats count="12">
-    <format dxfId="11">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="6">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="5">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="3">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1087,18 +1115,27 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaGPT" displayName="TablaGPT" ref="B3:F26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="B3:F26"/>
-  <sortState ref="B4:F26">
-    <sortCondition ref="B4"/>
-  </sortState>
+  <autoFilter ref="B3:F26">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Adapter"/>
+        <filter val="Bridge"/>
+        <filter val="Command"/>
+        <filter val="Interpreter"/>
+        <filter val="Observer"/>
+        <filter val="Proxy"/>
+        <filter val="Template Method"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" name="Categoría Metsker" dataDxfId="16"/>
     <tableColumn id="2" name="Categoría GoF" dataDxfId="15"/>
-    <tableColumn id="3" name="Patrón de Diseño" dataDxfId="14"/>
-    <tableColumn id="4" name="Escenario Común" dataDxfId="13"/>
-    <tableColumn id="5" name="Descripción Breve" dataDxfId="12"/>
+    <tableColumn id="3" name="Patrón de Diseño" dataDxfId="0"/>
+    <tableColumn id="4" name="Escenario Común" dataDxfId="14"/>
+    <tableColumn id="5" name="Descripción Breve" dataDxfId="13"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
@@ -1391,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>78</v>
       </c>
@@ -1443,7 +1480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
@@ -1460,7 +1497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>78</v>
       </c>
@@ -1477,7 +1514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>78</v>
       </c>
@@ -1494,7 +1531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
@@ -1511,7 +1548,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>79</v>
       </c>
@@ -1528,7 +1565,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>79</v>
       </c>
@@ -1545,7 +1582,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>79</v>
       </c>
@@ -1562,7 +1599,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>80</v>
       </c>
@@ -1572,14 +1609,14 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
+      <c r="E12" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>80</v>
       </c>
@@ -1589,14 +1626,14 @@
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>43</v>
+      <c r="E13" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>80</v>
       </c>
@@ -1613,7 +1650,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>80</v>
       </c>
@@ -1640,8 +1677,8 @@
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>57</v>
+      <c r="E16" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>58</v>
@@ -1657,14 +1694,14 @@
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>59</v>
+      <c r="E17" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
@@ -1681,7 +1718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>81</v>
       </c>
@@ -1698,7 +1735,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
@@ -1708,14 +1745,14 @@
       <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>73</v>
+      <c r="E20" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>82</v>
       </c>
@@ -1732,7 +1769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
@@ -1749,7 +1786,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
@@ -1759,14 +1796,14 @@
       <c r="D23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>53</v>
+      <c r="E23" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>82</v>
       </c>
@@ -1783,7 +1820,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>82</v>
       </c>
@@ -1810,8 +1847,8 @@
       <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>67</v>
+      <c r="E26" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>68</v>
@@ -1819,8 +1856,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/C# Designs Patterns/Metsker/Patrones de Diseño (Referencia Rápida).xlsx
+++ b/C# Designs Patterns/Metsker/Patrones de Diseño (Referencia Rápida).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BIB\C# Designs Patterns\Metsker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6BD584-89C8-4885-9218-4BC090BBF26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="8520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla Completa" sheetId="1" r:id="rId1"/>
@@ -300,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,9 +456,6 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -495,6 +498,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -512,12 +518,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Gerardo Tordoya" refreshedDate="45464.89380740741" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="23">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gerardo Tordoya" refreshedDate="45464.89380740741" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="23" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="TablaGPT"/>
   </cacheSource>
@@ -795,7 +804,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DinámicaGoF" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="DinámicaGoF" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:E26" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1039,64 +1048,64 @@
     <i/>
   </colItems>
   <formats count="12">
-    <format dxfId="12">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="4">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="2">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1109,13 +1118,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaGPT" displayName="TablaGPT" ref="B3:F26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="B3:F26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaGPT" displayName="TablaGPT" ref="B3:F26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="B3:F26" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="Adapter"/>
@@ -1129,20 +1141,20 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Categoría Metsker" dataDxfId="16"/>
-    <tableColumn id="2" name="Categoría GoF" dataDxfId="15"/>
-    <tableColumn id="3" name="Patrón de Diseño" dataDxfId="0"/>
-    <tableColumn id="4" name="Escenario Común" dataDxfId="14"/>
-    <tableColumn id="5" name="Descripción Breve" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Categoría Metsker" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría GoF" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Patrón de Diseño" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Escenario Común" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Descripción Breve" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1180,7 +1192,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1252,7 +1264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1425,11 +1437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:E26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">

--- a/C# Designs Patterns/Metsker/Patrones de Diseño (Referencia Rápida).xlsx
+++ b/C# Designs Patterns/Metsker/Patrones de Diseño (Referencia Rápida).xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BIB\C# Designs Patterns\Metsker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6BD584-89C8-4885-9218-4BC090BBF26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla Completa" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla Dinámica" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Tabla Completa'!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
@@ -24,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
-  <si>
-    <t>Tabla de Referencia Rápida de Patrones de Diseño</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
   <si>
     <t>Creacionales</t>
   </si>
@@ -275,45 +269,106 @@
     <t>Responsabilidad</t>
   </si>
   <si>
-    <t>Interfaz consistente para diferentes implementaciones.
-A ﬁreworks simulation designer establishes an interface that deﬁnes the behaviors your object must possess to participate in the simulation.</t>
-  </si>
-  <si>
-    <t>Interpretación de gramáticas.
-A toolkit lets you compose executable objects at runtime.</t>
-  </si>
-  <si>
-    <t>Plantillas de algoritmos.
-A superclass has a method that requires subclasses to ﬁll in a missing step.</t>
-  </si>
-  <si>
-    <t>Encapsulamiento de comandos.
-An object lets you extend its behavior by accepting a method encapsulated in an object and invoking that method at an appropriate moment.</t>
-  </si>
-  <si>
-    <t>Sustituto o marcador de posición para otro objeto.
-A code generator inserts behavior that provides the illusion that an object executing on another machine is local.</t>
-  </si>
-  <si>
-    <t>Comportamiento de múltiples objetos.
-A design lets you register for callbacks that will be issued when an object changes.</t>
-  </si>
-  <si>
-    <t>Separación de abstracción e implementación,
-A design lets you deﬁne abstract operations that depend on a well-deﬁned interface and lets you add new drivers that fulﬁll the interface.</t>
+    <t>UI frameworks como Windows Presentation Foundation (WPF), donde puedes crear familias de controles (botones, cuadros de texto, etc.) que se adaptan a diferentes estilos de interfaz de usuario.</t>
+  </si>
+  <si>
+    <t>Librerías de generación de documentos como Fluent API en Entity Framework, donde se construyen consultas SQL de manera fluida y paso a paso.</t>
+  </si>
+  <si>
+    <t>ASP.NET Core usa Factory Method para la creación de controladores, donde las subclases deciden qué controlador instanciar.</t>
+  </si>
+  <si>
+    <t>Clonación de objetos en aplicaciones gráficas, como la duplicación de gráficos en herramientas de diseño como Adobe Photoshop.</t>
+  </si>
+  <si>
+    <t>Administración de sesiones de usuario en aplicaciones web con ASP.NET, asegurando que solo haya una instancia de sesión por usuario.</t>
+  </si>
+  <si>
+    <t>Integración de componentes de terceros en una aplicación, como el uso de adaptadores para que los componentes de logging externos se ajusten al sistema de logging de .NET.</t>
+  </si>
+  <si>
+    <t>Sistemas de persistencia como Entity Framework, donde puedes cambiar la base de datos subyacente (SQL Server, MySQL, etc.) sin cambiar el código de la lógica de negocio.</t>
+  </si>
+  <si>
+    <t>Administración de permisos de usuario, donde puedes tener permisos individuales y grupos de permisos tratados de manera uniforme en sistemas como Active Directory.</t>
+  </si>
+  <si>
+    <t>Streams de I/O en .NET, donde puedes añadir funcionalidad como compresión o cifrado de manera dinámica a los streams de datos.</t>
+  </si>
+  <si>
+    <t>APIs de acceso a bases de datos como Dapper, que proporciona una interfaz simplificada para realizar operaciones complejas en la base de datos.</t>
+  </si>
+  <si>
+    <t>Implementación de caracteres en editores de texto como Visual Studio Code, donde se reutilizan objetos de caracteres para ahorrar memoria.</t>
+  </si>
+  <si>
+    <t>Servicios de seguridad en aplicaciones web con ASP.NET Core, donde los proxies manejan la autenticación y autorización de usuarios antes de permitir el acceso a los recursos.</t>
+  </si>
+  <si>
+    <t>Middleware en ASP.NET Core, donde cada pieza de middleware puede procesar la solicitud HTTP o pasarla al siguiente manejador en la cadena.</t>
+  </si>
+  <si>
+    <t>Comandos en aplicaciones WPF, donde cada acción del usuario (como copiar, pegar) se encapsula como un objeto comando.</t>
+  </si>
+  <si>
+    <t>Motores de reglas de negocio como el uso de Expression Trees en LINQ, que interpretan y ejecutan reglas definidas por el usuario.</t>
+  </si>
+  <si>
+    <t>Colecciones en .NET, como List&lt;T&gt; y Dictionary&lt;TKey, TValue&gt;, que proporcionan iteradores para recorrer los elementos.</t>
+  </si>
+  <si>
+    <t>Implementación de patrones de comunicación en sistemas de chat en tiempo real, donde el mediador centraliza y maneja la comunicación entre diferentes componentes del sistema.</t>
+  </si>
+  <si>
+    <t>Funcionalidad de deshacer en editores de texto como Visual Studio, donde se guarda el estado anterior del documento para permitir revertir cambios.</t>
+  </si>
+  <si>
+    <t>Eventos y delegados en C#, como los eventos en aplicaciones WPF que notifican a los suscriptores cuando ocurre un cambio.</t>
+  </si>
+  <si>
+    <t>Máquinas de estados en cajeros automáticos, donde el comportamiento del cajero cambia según el estado (esperando tarjeta, verificando PIN, dispensando dinero).</t>
+  </si>
+  <si>
+    <t>Algoritmos de compresión en .NET, como la elección de diferentes algoritmos de compresión (GZip, Deflate) en las clases System.IO.Compression.</t>
+  </si>
+  <si>
+    <t>Algoritmos de ordenamiento, donde puedes definir el esqueleto de un algoritmo de ordenamiento y permitir que las subclases definan pasos específicos.</t>
+  </si>
+  <si>
+    <t>Operaciones sobre estructuras de datos como árboles de sintaxis abstracta en compiladores, permitiendo realizar análisis o transformaciones sobre el árbol sin modificar las clases de los nodos.</t>
+  </si>
+  <si>
+    <t>Metsker</t>
+  </si>
+  <si>
+    <t>GoF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,14 +467,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -450,11 +499,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cascadia Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cascadia Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
@@ -492,24 +611,6 @@
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -526,7 +627,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gerardo Tordoya" refreshedDate="45464.89380740741" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="23" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Gerardo Tordoya" refreshedDate="45464.89380740741" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="23">
   <cacheSource type="worksheet">
     <worksheetSource name="TablaGPT"/>
   </cacheSource>
@@ -804,7 +905,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="DinámicaGoF" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DinámicaGoF" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:E26" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1048,64 +1149,64 @@
     <i/>
   </colItems>
   <formats count="12">
-    <format dxfId="11">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="10">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="9">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="8">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="7">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1126,35 +1227,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaGPT" displayName="TablaGPT" ref="B3:F26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="B3:F26" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Adapter"/>
-        <filter val="Bridge"/>
-        <filter val="Command"/>
-        <filter val="Interpreter"/>
-        <filter val="Observer"/>
-        <filter val="Proxy"/>
-        <filter val="Template Method"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaGPT" displayName="TablaGPT" ref="A1:E24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="18">
+  <autoFilter ref="A1:E24"/>
+  <sortState ref="A4:E26">
+    <sortCondition ref="C23"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Categoría Metsker" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría GoF" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Patrón de Diseño" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Escenario Común" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Descripción Breve" dataDxfId="12"/>
+    <tableColumn id="1" name="Metsker" dataDxfId="4"/>
+    <tableColumn id="2" name="GoF" dataDxfId="3"/>
+    <tableColumn id="3" name="Patrón de Diseño" dataDxfId="2"/>
+    <tableColumn id="4" name="Escenario Común" dataDxfId="1"/>
+    <tableColumn id="5" name="Descripción Breve" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1192,7 +1284,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1264,7 +1356,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1437,438 +1529,434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="6" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1876,7 +1964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -1891,347 +1979,347 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="E23" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D25" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="E25" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
